--- a/review.xlsx
+++ b/review.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sự kiện chuẩn của thiết bị</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>remote</t>
+  </si>
+  <si>
+    <t>getInfor</t>
   </si>
 </sst>
 </file>
@@ -119,16 +122,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378142</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -137,8 +140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="4800600"/>
-          <a:ext cx="819150" cy="419100"/>
+          <a:off x="5681662" y="8248649"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -168,14 +171,55 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="91440" tIns="0" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>[mqtt]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MQTT</a:t>
-          </a:r>
+            <a:t>keys:network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imports:{}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -184,15 +228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>411956</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594836</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -201,8 +245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="4838700"/>
-          <a:ext cx="819150" cy="419100"/>
+          <a:off x="3459956" y="8248649"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -235,7 +279,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -243,7 +287,21 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Websocket]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -253,8 +311,42 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Websocket</a:t>
-          </a:r>
+            <a:t>keys:network/websocket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imports:{}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -263,15 +355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599599</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -280,8 +372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="3886200"/>
-          <a:ext cx="819150" cy="419100"/>
+          <a:off x="3464719" y="6529388"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -314,20 +406,27 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="91440" tIns="0" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Socket</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>[ Socket handle ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>handle</a:t>
+            <a:t>- keys:network/websocket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- network:network/websocket</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -336,95 +435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591502</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="2476500"/>
-          <a:ext cx="1152525" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Network</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591502</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -435,9 +455,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4786313" y="4333875"/>
-          <a:ext cx="4762" cy="466725"/>
+        <a:xfrm flipV="1">
+          <a:off x="6687502" y="5696902"/>
+          <a:ext cx="0" cy="2551747"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -475,16 +495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203359</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -496,8 +516,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3629025" y="2952750"/>
-          <a:ext cx="547688" cy="933450"/>
+          <a:off x="4470559" y="3860959"/>
+          <a:ext cx="2380" cy="2668429"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -535,16 +555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198596</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203359</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -556,8 +576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3629025" y="4305300"/>
-          <a:ext cx="0" cy="533400"/>
+          <a:off x="4465796" y="7535228"/>
+          <a:ext cx="4763" cy="713421"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -595,95 +615,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203359</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6038850" y="2486025"/>
-          <a:ext cx="942975" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Sercurity</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377189</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -695,8 +636,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3629025" y="2933700"/>
-          <a:ext cx="2881313" cy="952500"/>
+          <a:off x="4470559" y="5711189"/>
+          <a:ext cx="4441030" cy="818199"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -734,16 +675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>148589</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -752,8 +693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="1104900"/>
-          <a:ext cx="942975" cy="447675"/>
+          <a:off x="5133974" y="666749"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,6 +702,9 @@
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -786,7 +730,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -794,7 +738,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -804,8 +748,83 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>handle topic</a:t>
-          </a:r>
+            <a:t>[ handle topic ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys: handle/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> db:database/handle_guide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- dv:device/service</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -813,16 +832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>148589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>557213</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -834,8 +853,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4176713" y="1552575"/>
-          <a:ext cx="38100" cy="923925"/>
+          <a:off x="4472939" y="1672589"/>
+          <a:ext cx="1666875" cy="1182530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -873,16 +892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>588168</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161448</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -891,8 +910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="4838699"/>
-          <a:ext cx="952500" cy="409575"/>
+          <a:off x="7903368" y="8248649"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -900,6 +919,9 @@
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -925,7 +947,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -933,7 +955,21 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Handle guide]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -943,7 +979,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Handle guid</a:t>
+            <a:t>- keys: database/handle_guide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- database: database/basic</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -952,16 +1002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>374808</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377189</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -973,8 +1023,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6067425" y="2933700"/>
-          <a:ext cx="442913" cy="1904999"/>
+          <a:off x="8909208" y="5711189"/>
+          <a:ext cx="2381" cy="2537460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1012,16 +1062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>557213</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>148589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>374808</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1033,8 +1083,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4214813" y="1552575"/>
-          <a:ext cx="1852612" cy="3286124"/>
+          <a:off x="6139814" y="1672589"/>
+          <a:ext cx="2769394" cy="6576060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1072,16 +1122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1090,8 +1140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3590925" y="6019800"/>
-          <a:ext cx="1276350" cy="609600"/>
+          <a:off x="6086475" y="10125075"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,7 +1174,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1132,7 +1182,21 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Database ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1142,7 +1206,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Database</a:t>
+            <a:t>keys:Database/basic</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1151,16 +1215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>374808</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1172,8 +1236,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4229100" y="5248274"/>
-          <a:ext cx="1838325" cy="771526"/>
+          <a:off x="7092315" y="9254489"/>
+          <a:ext cx="1816893" cy="870586"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1212,113 +1276,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Rectangle 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="3924300"/>
-          <a:ext cx="942975" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>User</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> service</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158114</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1330,8 +1296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4229100" y="5286375"/>
-          <a:ext cx="3262313" cy="733425"/>
+          <a:off x="7092315" y="9254489"/>
+          <a:ext cx="4038599" cy="870586"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1369,16 +1335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>554354</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1387,8 +1353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="4838700"/>
-          <a:ext cx="942975" cy="447675"/>
+          <a:off x="10125074" y="8248649"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,7 +1387,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1429,7 +1395,21 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[user_database]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1439,7 +1419,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>user_database</a:t>
+            <a:t>- keys: database/user_database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - database:database/basic</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1448,16 +1442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>490538</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148589</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>158114</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1469,8 +1463,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7196138" y="4371975"/>
-          <a:ext cx="295275" cy="466725"/>
+          <a:off x="11121389" y="7468552"/>
+          <a:ext cx="9525" cy="780097"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1508,16 +1502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377189</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>490538</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148589</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1529,8 +1523,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6510338" y="2933700"/>
-          <a:ext cx="685800" cy="990600"/>
+          <a:off x="8911589" y="5711189"/>
+          <a:ext cx="2209800" cy="751523"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1569,15 +1563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1586,8 +1580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1771650" y="4657725"/>
-          <a:ext cx="1143000" cy="447675"/>
+          <a:off x="1238250" y="8248649"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,6 +1589,9 @@
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -1620,7 +1617,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1628,7 +1625,21 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ device_database ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -1638,8 +1649,54 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>device_database</a:t>
-          </a:r>
+            <a:t>keys:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>database/device</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imports: database/basic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1648,15 +1705,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>110489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>386715</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1668,8 +1725,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2343150" y="5105400"/>
-          <a:ext cx="1885950" cy="914400"/>
+          <a:off x="2244090" y="9254489"/>
+          <a:ext cx="4848225" cy="870586"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1708,15 +1765,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211456</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1725,8 +1782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1819276" y="3876675"/>
-          <a:ext cx="1066800" cy="447675"/>
+          <a:off x="1247776" y="6500812"/>
+          <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1734,6 +1791,9 @@
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -1759,7 +1819,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1767,18 +1827,32 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>device</a:t>
-          </a:r>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ device</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> service ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
@@ -1788,7 +1862,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> service</a:t>
+            <a:t>- keys: service/device</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- database:database/device</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -1806,15 +1894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>424816</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1826,8 +1914,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2343150" y="4324350"/>
-          <a:ext cx="9526" cy="333375"/>
+          <a:off x="2244090" y="7506652"/>
+          <a:ext cx="9526" cy="741997"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1866,15 +1954,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
+      <xdr:colOff>424816</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>148589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>557213</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1886,8 +1974,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2352676" y="1552575"/>
-          <a:ext cx="1862137" cy="2324100"/>
+          <a:off x="2253616" y="1672589"/>
+          <a:ext cx="3886198" cy="4828223"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1925,95 +2013,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="Rectangle 131"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Connector 241"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="3886200"/>
-          <a:ext cx="942975" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Tasmota</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:off x="1323974" y="7810499"/>
+          <a:ext cx="10972800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591502</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377189</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2025,8 +2084,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4791075" y="2933700"/>
-          <a:ext cx="1719263" cy="1866900"/>
+          <a:off x="6687502" y="5711189"/>
+          <a:ext cx="2224087" cy="2537460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2064,16 +2123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>519113</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591502</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2085,8 +2144,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4176713" y="2952750"/>
-          <a:ext cx="609600" cy="933450"/>
+          <a:off x="4472939" y="3860959"/>
+          <a:ext cx="2214563" cy="830103"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2125,15 +2184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2142,17 +2201,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1743075" y="5610225"/>
-          <a:ext cx="6448425" cy="0"/>
+          <a:off x="1323974" y="9701212"/>
+          <a:ext cx="10972800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -2177,67 +2234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name="Straight Connector 241"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1695450" y="4514850"/>
-          <a:ext cx="6448425" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2246,17 +2251,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="3419475"/>
-          <a:ext cx="6448425" cy="0"/>
+          <a:off x="1323974" y="6215062"/>
+          <a:ext cx="10972800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
@@ -2280,16 +2283,123 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601979</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467099" y="2855119"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Network ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2298,20 +2408,1314 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="1952625"/>
-          <a:ext cx="6448425" cy="0"/>
+          <a:off x="1323974" y="4276725"/>
+          <a:ext cx="10972800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323974" y="11363325"/>
+          <a:ext cx="10972800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130090</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11844770" y="10383319"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>111040</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11825720" y="8595001"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163829</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905749" y="4705349"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Sercurity ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:sercurity/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- userService: service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120565</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11835245" y="6873357"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120565</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11835245" y="5065988"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63415</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11778095" y="3277668"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>544829</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115549" y="6462712"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> service ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: database/user_database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-hash:hash/#</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378142</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Rectangle 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681662" y="4691062"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Tasmota ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> network:network/mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Straight Connector 174"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400174" y="2295525"/>
+          <a:ext cx="10972800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>520616</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="TextBox 195"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11625696" y="1115493"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>588168</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161448</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="Rectangle 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7903368" y="6543674"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[handle service]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: database/handle_guide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- db: database/handle_guide</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>525779</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="Rectangle 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534899" y="8267699"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[hash]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: hash/cryption</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - db:setting/config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>535304</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="Rectangle 207"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496424" y="10096499"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[config]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: setting/config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139064</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Straight Arrow Connector 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="0"/>
+          <a:endCxn id="207" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10502264" y="9273539"/>
+          <a:ext cx="3038475" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148589</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129539</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="Straight Arrow Connector 212"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="0"/>
+          <a:endCxn id="68" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11121389" y="7468552"/>
+          <a:ext cx="2419350" cy="799147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2596,57 +4000,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="Q8:Q16"/>
+  <dimension ref="W2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q8" t="s">
+    <row r="2" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q9" s="1" t="s">
+    <row r="3" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q10" s="1" t="s">
+    <row r="4" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q11" s="1" t="s">
+    <row r="5" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q12" s="1" t="s">
+    <row r="6" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q13" s="2" t="s">
+    <row r="7" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q14" s="2" t="s">
+    <row r="8" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q15" s="2" t="s">
+    <row r="9" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q16" s="2" t="s">
+    <row r="10" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/review.xlsx
+++ b/review.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Sự kiện chuẩn của thiết bị</t>
   </si>
@@ -122,16 +123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>378142</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -140,7 +141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5681662" y="8248649"/>
+          <a:off x="6280785" y="9696449"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -227,16 +228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>411956</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594836</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -245,7 +246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3459956" y="8248649"/>
+          <a:off x="4021455" y="9696449"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -354,16 +355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>416719</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>599599</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>105728</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330994</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -372,7 +373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3464719" y="6529388"/>
+          <a:off x="3988594" y="7729537"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -435,29 +436,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591502</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591502</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505777</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="132" idx="2"/>
+          <a:endCxn id="37" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6687502" y="5696902"/>
-          <a:ext cx="0" cy="2551747"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7211377" y="6982777"/>
+          <a:ext cx="75248" cy="2713672"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -495,29 +496,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203359</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50959</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117634</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4470559" y="3860959"/>
-          <a:ext cx="2380" cy="2668429"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4994434" y="8735377"/>
+          <a:ext cx="32861" cy="961072"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -555,29 +556,186 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198596</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>105728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203359</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>497204</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800724" y="295274"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ handle topic ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys: handle/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> db:database/handle_guide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- dv:device/service</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="4" idx="2"/>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4465796" y="7535228"/>
-          <a:ext cx="4763" cy="713421"/>
+          <a:off x="4996814" y="1301114"/>
+          <a:ext cx="1809750" cy="3001805"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -615,29 +773,139 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>203359</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>377189</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540115" y="9696449"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[topic_database]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: database/topic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- database: database/basic</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="32" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4470559" y="5711189"/>
-          <a:ext cx="4441030" cy="818199"/>
+          <a:off x="9545955" y="6987539"/>
+          <a:ext cx="670559" cy="2708910"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -675,186 +943,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>440054</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148589</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5133974" y="666749"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[ handle topic ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keys: handle/basic</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- network:network</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> db:database/handle_guide</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- dv:device/service</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148589</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43814</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>188119</xdr:rowOff>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="21" idx="2"/>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4472939" y="1672589"/>
-          <a:ext cx="1666875" cy="1182530"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6806564" y="1301114"/>
+          <a:ext cx="2739391" cy="8395335"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -892,25 +1003,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>588168</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161448</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7903368" y="8248649"/>
+          <a:off x="6591300" y="11610975"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -919,9 +1030,6 @@
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
-        <a:ln w="19050">
-          <a:prstDash val="dash"/>
-        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -947,7 +1055,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -965,7 +1073,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[Handle guide]</a:t>
+            <a:t>[ Database ]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -979,21 +1087,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- keys: database/handle_guide</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- database: database/basic</a:t>
+            <a:t>keys:Database/basic</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1002,29 +1096,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374808</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>377189</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8909208" y="5711189"/>
-          <a:ext cx="2381" cy="2537460"/>
+          <a:off x="7597140" y="10702289"/>
+          <a:ext cx="1948815" cy="908686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1062,242 +1156,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43814</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148589</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374808</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="0"/>
-          <a:endCxn id="21" idx="2"/>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6139814" y="1672589"/>
-          <a:ext cx="2769394" cy="6576060"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>173355</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6086475" y="10125075"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[ Database ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keys:Database/basic</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>386715</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>374808</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="0"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7092315" y="9254489"/>
-          <a:ext cx="1816893" cy="870586"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>386715</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>158114</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="0"/>
-          <a:endCxn id="70" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7092315" y="9254489"/>
-          <a:ext cx="4038599" cy="870586"/>
+          <a:off x="7597140" y="10702289"/>
+          <a:ext cx="4208145" cy="908686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1335,25 +1216,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>554354</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 69"/>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10125074" y="8248649"/>
+          <a:off x="10799445" y="9696449"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1442,29 +1323,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>148589</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39052</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>158114</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="70" idx="0"/>
-          <a:endCxn id="68" idx="2"/>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="36" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11121389" y="7468552"/>
-          <a:ext cx="9525" cy="780097"/>
+        <a:xfrm flipV="1">
+          <a:off x="11805285" y="8668702"/>
+          <a:ext cx="640079" cy="1027747"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1502,29 +1383,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>377189</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>148589</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
+          <a:stCxn id="36" idx="0"/>
+          <a:endCxn id="32" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8911589" y="5711189"/>
-          <a:ext cx="2209800" cy="751523"/>
+          <a:off x="10216514" y="6987539"/>
+          <a:ext cx="2228850" cy="675323"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1563,24 +1444,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Rectangle 86"/>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="8248649"/>
+          <a:off x="1762125" y="9696449"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1704,29 +1585,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>110489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>386715</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="0"/>
-          <a:endCxn id="87" idx="2"/>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="18" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2244090" y="9254489"/>
-          <a:ext cx="4848225" cy="870586"/>
+          <a:off x="2767965" y="10702289"/>
+          <a:ext cx="4829175" cy="908686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1765,24 +1646,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>211456</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>77152</xdr:rowOff>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247776" y="6500812"/>
+          <a:off x="1714501" y="2319337"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1893,29 +1774,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>77152</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>424816</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="0"/>
-          <a:endCxn id="93" idx="2"/>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="20" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2244090" y="7506652"/>
-          <a:ext cx="9526" cy="741997"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2720341" y="3325177"/>
+          <a:ext cx="47624" cy="6371272"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1953,29 +1834,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>424816</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148589</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43814</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Straight Arrow Connector 100"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="93" idx="0"/>
-          <a:endCxn id="21" idx="2"/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="7" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2253616" y="1672589"/>
-          <a:ext cx="3886198" cy="4828223"/>
+          <a:off x="3726181" y="1301114"/>
+          <a:ext cx="3080383" cy="1521143"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2013,26 +1894,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name="Straight Connector 241"/>
+        <xdr:cNvPr id="23" name="Straight Connector 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323974" y="7810499"/>
-          <a:ext cx="10972800" cy="0"/>
+          <a:off x="1924049" y="9220200"/>
+          <a:ext cx="13716000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2063,29 +1944,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591502</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>377189</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
+          <a:endCxn id="32" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6687502" y="5711189"/>
-          <a:ext cx="2224087" cy="2537460"/>
+          <a:off x="7286625" y="6987539"/>
+          <a:ext cx="2929889" cy="2708910"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2123,32 +2004,1586 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205739</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50959</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591502</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="157" name="Straight Arrow Connector 156"/>
+        <xdr:cNvPr id="25" name="Straight Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1924049" y="11058525"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="7381875"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516254</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990974" y="4302919"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Network ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="5543550"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="12896850"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="11831119"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3173</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="10005493"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>249554</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210674" y="5981699"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Sercurity ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:sercurity/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- userService: service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82548</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="8179868"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="6354243"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50798</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="4528618"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>40004</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439524" y="7662862"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> service ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: database/user_database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-hash:hash/#</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292417</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="5976937"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Tasmota ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> network:network/mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="3705225"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130173</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="2702993"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058774" y="9696449"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[hash]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: hash/cryption</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - db:setting/config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>81914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058774" y="11458574"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[config]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: setting/config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="132" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
+          <a:stCxn id="41" idx="0"/>
+          <a:endCxn id="40" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14064614" y="10702289"/>
+          <a:ext cx="0" cy="756285"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="0"/>
+          <a:endCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4472939" y="3860959"/>
-          <a:ext cx="2214563" cy="830103"/>
+          <a:off x="12445364" y="8668702"/>
+          <a:ext cx="1619250" cy="1027747"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="1866900"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="877368"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117634</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Curved Connector 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7234475" y="4747498"/>
+          <a:ext cx="741998" cy="5222080"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -2183,36 +3618,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117634</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name="Straight Connector 240"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="47" name="Curved Connector 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1323974" y="9701212"/>
-          <a:ext cx="10972800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3785235" y="6517958"/>
+          <a:ext cx="2420778" cy="2380"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71641"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2233,36 +3680,46 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="243" name="Straight Connector 242"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="48" name="Curved Connector 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1323974" y="6215062"/>
-          <a:ext cx="10972800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+        <a:xfrm rot="10800000">
+          <a:off x="4996815" y="5308759"/>
+          <a:ext cx="1208723" cy="1171098"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2281,34 +3738,144 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>188119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601979</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50959</xdr:rowOff>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184785</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3467099" y="2855119"/>
+          <a:off x="6280785" y="9696449"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="91440" tIns="0" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>[mqtt]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>keys:network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imports:{}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4021455" y="9696449"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -2345,6 +3912,20 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[Websocket]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -2353,36 +3934,42 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[ Network ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+            <a:t>keys:network/websocket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: network</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- network:network/#</a:t>
-          </a:r>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imports:{}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2390,250 +3977,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name="Straight Connector 243"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1323974" y="4276725"/>
-          <a:ext cx="10972800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Connector 45"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1323974" y="11363325"/>
-          <a:ext cx="10972800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>130090</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330994</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11844770" y="10383319"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>111040</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="TextBox 51"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11825720" y="8595001"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>163829</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905749" y="4705349"/>
+          <a:off x="3988594" y="7729537"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
@@ -2660,285 +4029,174 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="91440" tIns="0" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[ Sercurity ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keys:sercurity/basic</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- network:network/#</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- userService: service/user</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>[ Socket handle ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- keys:network/websocket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- network:network/websocket</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>120565</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505777</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="132" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7211377" y="6982777"/>
+          <a:ext cx="75248" cy="2713672"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117634</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4994434" y="8735377"/>
+          <a:ext cx="32861" cy="961072"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>497204</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="TextBox 52"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11835245" y="6873357"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>120565</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16668</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="TextBox 53"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11835245" y="5065988"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>63415</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="TextBox 54"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11778095" y="3277668"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>544829</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39052</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Rectangle 67"/>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10115549" y="6462712"/>
+          <a:off x="5800724" y="295274"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2947,6 +4205,9 @@
         <a:solidFill>
           <a:schemeClr val="accent1"/>
         </a:solidFill>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -2990,7 +4251,49 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[ User</a:t>
+            <a:t>[ handle topic ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys: handle/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -3001,7 +4304,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> service ]</a:t>
+            <a:t> db:database/handle_guide</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3015,172 +4318,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>keys:service/user</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-db</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: database/user_database</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-hash:hash/#</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>378142</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="Rectangle 131"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5681662" y="4691062"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[ Tasmota ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: network/mqtt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> network:network/mqtt</a:t>
+            <a:t>- dv:device/service</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -3197,36 +4335,46 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="175" name="Straight Connector 174"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400174" y="2295525"/>
-          <a:ext cx="10972800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+        <a:xfrm flipV="1">
+          <a:off x="4996814" y="1301114"/>
+          <a:ext cx="1809750" cy="3001805"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3245,86 +4393,27 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>520616</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188595</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="TextBox 195"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11625696" y="1115493"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>588168</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161448</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>120014</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="Rectangle 203"/>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7903368" y="6543674"/>
+          <a:off x="8540115" y="9696449"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3379,7 +4468,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[handle service]</a:t>
+            <a:t>[Handle guide]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3407,7 +4496,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- db: database/handle_guide</a:t>
+            <a:t>- database: database/basic</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3416,25 +4505,145 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>525779</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9545955" y="6987539"/>
+          <a:ext cx="670559" cy="2708910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6806564" y="1301114"/>
+          <a:ext cx="2739391" cy="8395335"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="Rectangle 206"/>
+        <xdr:cNvPr id="60" name="Rectangle 59"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12534899" y="8267699"/>
+          <a:off x="6591300" y="11610975"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3468,7 +4677,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3486,7 +4695,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[hash]</a:t>
+            <a:t>[ Database ]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3500,21 +4709,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- keys: hash/cryption</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - db:setting/config</a:t>
+            <a:t>keys:Database/basic</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3523,33 +4718,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>535304</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="Rectangle 207"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9496424" y="10096499"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7597140" y="10702289"/>
+          <a:ext cx="1948815" cy="908686"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -3559,86 +4760,47 @@
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[config]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: setting/config</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139064</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129539</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="209" name="Straight Arrow Connector 208"/>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="208" idx="0"/>
-          <a:endCxn id="207" idx="2"/>
+          <a:stCxn id="60" idx="0"/>
+          <a:endCxn id="70" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10502264" y="9273539"/>
-          <a:ext cx="3038475" cy="822960"/>
+          <a:off x="7597140" y="10702289"/>
+          <a:ext cx="4208145" cy="908686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3676,16 +4838,2187 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10799445" y="9696449"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[user_database]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: database/user_database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - database:database/basic</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="68" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11805285" y="8668702"/>
+          <a:ext cx="640079" cy="1027747"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10216514" y="6987539"/>
+          <a:ext cx="2228850" cy="675323"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="9696449"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ device_database ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>database/device</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imports: database/basic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="0"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2767965" y="10702289"/>
+          <a:ext cx="4829175" cy="908686"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714501" y="2319337"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ device</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> service ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: service/device</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- database:database/device</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="0"/>
+          <a:endCxn id="93" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2720341" y="3325177"/>
+          <a:ext cx="47624" cy="6371272"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Straight Arrow Connector 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3726181" y="1301114"/>
+          <a:ext cx="3080383" cy="1521143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Connector 241"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="9220200"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286625" y="6987539"/>
+          <a:ext cx="2929889" cy="2708910"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="Straight Connector 240"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1924049" y="11058525"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="243" name="Straight Connector 242"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="7381875"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516254</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990974" y="4302919"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Network ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="Straight Connector 243"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="5543550"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="12896850"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="11831119"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3173</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="10005493"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>148589</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39052</xdr:rowOff>
+      <xdr:colOff>249554</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210674" y="5981699"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Sercurity ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:sercurity/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- userService: service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82548</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="8179868"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="6354243"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50798</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="4528618"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>129539</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>40004</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439524" y="7662862"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> service ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: database/user_database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-hash:hash/#</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292417</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="Rectangle 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6205537" y="5976937"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Tasmota ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> network:network/mqtt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Straight Connector 174"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="3705225"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130173</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="TextBox 195"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="2702993"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="Rectangle 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058774" y="9696449"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[hash]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: hash/cryption</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - db:setting/config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>440054</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>81914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="Rectangle 207"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058774" y="11458574"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[config]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: setting/config</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>34289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="Straight Arrow Connector 208"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="208" idx="0"/>
+          <a:endCxn id="207" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14064614" y="10702289"/>
+          <a:ext cx="0" cy="756285"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253364</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>96202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>43814</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3697,8 +7030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11121389" y="7468552"/>
-          <a:ext cx="2419350" cy="799147"/>
+          <a:off x="12445364" y="8668702"/>
+          <a:ext cx="1619250" cy="1027747"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3706,6 +7039,299 @@
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="1866900"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="TextBox 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="877368"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117634</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>462914</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Curved Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7234475" y="4747498"/>
+          <a:ext cx="741998" cy="5222080"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117634</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120014</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Curved Connector 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3785235" y="6517958"/>
+          <a:ext cx="2420778" cy="2380"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71641"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Curved Connector 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="1"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4996815" y="5308759"/>
+          <a:ext cx="1208723" cy="1171098"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -4002,8 +7628,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="W2:W11"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -123,16 +123,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>184785</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>367665</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584835</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>5714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -141,7 +141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6280785" y="9696449"/>
+          <a:off x="5461635" y="9858374"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -228,16 +228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>363855</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>546735</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:rowOff>148589</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -246,7 +246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4021455" y="9696449"/>
+          <a:off x="11641455" y="9810749"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -355,16 +355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>330994</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>513874</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>26194</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209074</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -373,7 +373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3988594" y="7729537"/>
+          <a:off x="11608594" y="7843837"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -436,16 +436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>505777</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>124777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>134302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429577</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -456,9 +456,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7211377" y="6982777"/>
-          <a:ext cx="75248" cy="2713672"/>
+        <a:xfrm flipV="1">
+          <a:off x="6467475" y="6992302"/>
+          <a:ext cx="58102" cy="2866072"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -496,16 +496,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>117634</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>150495</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422434</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -517,8 +517,225 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4994434" y="8735377"/>
+          <a:off x="12614434" y="8849677"/>
           <a:ext cx="32861" cy="961072"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>382904</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686424" y="504824"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ control ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys: handle/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> db:database/handle_guide</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- dv:device/service</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596264</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6692264" y="1510664"/>
+          <a:ext cx="66675" cy="2392205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -556,186 +773,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>497204</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800724" y="295274"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[ handle topic ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keys: handle/basic</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- network:network</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> db:database/handle_guide</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- dv:device/service</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120014</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100964</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234314</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="0"/>
-          <a:endCxn id="7" idx="2"/>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="32" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4996814" y="1301114"/>
-          <a:ext cx="1809750" cy="3001805"/>
+          <a:off x="7978140" y="7006589"/>
+          <a:ext cx="790574" cy="4423411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -773,246 +833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>188595</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8540115" y="9696449"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:prstDash val="dash"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[topic_database]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: database/topic</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- database: database/basic</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>462914</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="32" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9545955" y="6987539"/>
-          <a:ext cx="670559" cy="2708910"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100964</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>401955</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="7" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6806564" y="1301114"/>
-          <a:ext cx="2739391" cy="8395335"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1021,7 +851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="11610975"/>
+          <a:off x="6972300" y="11430000"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1096,89 +926,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>401955</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="0"/>
-          <a:endCxn id="9" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7597140" y="10702289"/>
-          <a:ext cx="1948815" cy="908686"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
+          <a:endCxn id="36" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7597140" y="10702289"/>
-          <a:ext cx="4208145" cy="908686"/>
+          <a:off x="7978140" y="8802052"/>
+          <a:ext cx="2400299" cy="2627948"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1216,136 +986,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234314</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10799445" y="9696449"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[user_database]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: database/user_database</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - database:database/basic</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>253364</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="36" idx="2"/>
+          <a:stCxn id="36" idx="0"/>
+          <a:endCxn id="32" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11805285" y="8668702"/>
-          <a:ext cx="640079" cy="1027747"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8768714" y="7006589"/>
+          <a:ext cx="1609725" cy="789623"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1383,76 +1046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>462914</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>253364</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="0"/>
-          <a:endCxn id="32" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10216514" y="6987539"/>
-          <a:ext cx="2228850" cy="675323"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>116205</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1461,7 +1064,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762125" y="9696449"/>
+          <a:off x="1095375" y="9648824"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1585,16 +1188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>329565</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1606,8 +1209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2767965" y="10702289"/>
-          <a:ext cx="4829175" cy="908686"/>
+          <a:off x="2101215" y="10654664"/>
+          <a:ext cx="5876925" cy="775336"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1645,16 +1248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68581</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49531</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>86677</xdr:rowOff>
+      <xdr:rowOff>952</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1663,7 +1266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714501" y="2319337"/>
+          <a:off x="1085851" y="2233612"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1774,16 +1377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281941</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262891</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>86677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>329565</xdr:colOff>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272415</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1795,8 +1398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2720341" y="3325177"/>
-          <a:ext cx="47624" cy="6371272"/>
+          <a:off x="2091691" y="3239452"/>
+          <a:ext cx="9524" cy="6409372"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1834,16 +1437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68581</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158114</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>100964</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49531</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596264</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>155257</xdr:rowOff>
+      <xdr:rowOff>69532</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1855,8 +1458,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3726181" y="1301114"/>
-          <a:ext cx="3080383" cy="1521143"/>
+          <a:off x="3097531" y="1510664"/>
+          <a:ext cx="3594733" cy="1225868"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1944,16 +1547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>462914</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>148589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234314</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1965,8 +1568,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7286625" y="6987539"/>
-          <a:ext cx="2929889" cy="2708910"/>
+          <a:off x="6467475" y="7006589"/>
+          <a:ext cx="2301239" cy="2851785"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2104,16 +1707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>516254</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165259</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>449579</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2122,7 +1725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990974" y="4302919"/>
+          <a:off x="5753099" y="3902869"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2427,27 +2030,204 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>249554</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82548</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="8179868"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="6354243"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>244391</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50798</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="264560" cy="1219199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="15007071" y="4528618"/>
+          <a:ext cx="1219199" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Level5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>411479</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9210674" y="5981699"/>
+          <a:off x="9372599" y="7796212"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2499,85 +2279,250 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[ Sercurity ]</a:t>
+            <a:t>[ User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> service ]</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keys:sercurity/basic</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:service/user</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- network:network/#</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: database/basic</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- userService: service/user</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- </a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-hash:hash/#</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216217</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5519737" y="5986462"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="91440" tIns="0" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Tasmota ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/mqtt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="3705225"/>
+          <a:ext cx="13716000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>244391</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>82548</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130173</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="1219199"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="15007071" y="8179868"/>
+          <a:off x="15007071" y="2702993"/>
           <a:ext cx="1219199" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2614,152 +2559,34 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Level3</a:t>
+            <a:t>Level6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>244391</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392429</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="15007071" y="6354243"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>244391</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>50798</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="15007071" y="4528618"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>40004</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11439524" y="7662862"/>
+          <a:off x="9353549" y="9629774"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2793,7 +2620,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -2803,6 +2630,20 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[hash]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -2811,80 +2652,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[ User</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> service ]</a:t>
+            <a:t>- keys: hash/cryption</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>keys:service/user</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-db</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: database/user_database</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-hash:hash/#</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - db:setting/config</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2892,25 +2675,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>292417</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>124777</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>392429</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6205537" y="5976937"/>
+          <a:off x="9353549" y="11391899"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2944,241 +2727,6 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[ Tasmota ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: network/mqtt</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> network:network/mqtt</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Connector 37"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1924049" y="3705225"/>
-          <a:ext cx="13716000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>244391</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130173</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="264560" cy="1219199"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="TextBox 38"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="15007071" y="2702993"/>
-          <a:ext cx="1219199" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="91440" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Level6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>440054</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13058774" y="9696449"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
@@ -3197,7 +2745,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>[hash]</a:t>
+            <a:t>[config]</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3211,21 +2759,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- keys: hash/cryption</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> - db:setting/config</a:t>
+            <a:t>- keys: setting/config</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3234,109 +2768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>440054</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>81914</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 40"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13058774" y="11458574"/>
-          <a:ext cx="2011680" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[config]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- keys: setting/config</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>43814</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>43814</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605789</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>158114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605789</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3348,7 +2789,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14064614" y="10702289"/>
+          <a:off x="10359389" y="10635614"/>
           <a:ext cx="0" cy="756285"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3387,16 +2828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>253364</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>96202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>43814</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605789</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3407,9 +2848,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12445364" y="8668702"/>
-          <a:ext cx="1619250" cy="1027747"/>
+        <a:xfrm flipV="1">
+          <a:off x="10359389" y="8802052"/>
+          <a:ext cx="19050" cy="827722"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3556,29 +2997,151 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>117634</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>462914</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>20954</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422434</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Curved Connector 45"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="32" idx="2"/>
+          <a:endCxn id="32" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10524410" y="5753813"/>
+          <a:ext cx="1340168" cy="2839880"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53339</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422434</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Curved Connector 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8219123" y="3448525"/>
+          <a:ext cx="2935128" cy="5855495"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75961"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429578</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Curved Connector 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="7234475" y="4747498"/>
-          <a:ext cx="741998" cy="5222080"/>
+          <a:off x="6103382" y="5330905"/>
+          <a:ext cx="1077753" cy="233362"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3618,41 +3181,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>117634</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120014</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Curved Connector 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3785235" y="6517958"/>
-          <a:ext cx="2420778" cy="2380"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 71641"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>20954</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762874" y="6000749"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -3662,80 +3217,101 @@
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>165259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2857</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Curved Connector 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="1"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4996815" y="5308759"/>
-          <a:ext cx="1208723" cy="1171098"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="0" rIns="91440" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ Sercurity ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keys:sercurity/basic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/#</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- userService: service/user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- db:database/basic</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7628,8 +7204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -714,15 +714,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>596264</xdr:colOff>
+      <xdr:colOff>577214</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>177164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53339</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92869</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596264</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -733,9 +733,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6692264" y="1510664"/>
-          <a:ext cx="66675" cy="2392205"/>
+        <a:xfrm flipV="1">
+          <a:off x="6673214" y="1510664"/>
+          <a:ext cx="19050" cy="849155"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1708,15 +1708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92869</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>449579</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146209</xdr:rowOff>
+      <xdr:colOff>363854</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1725,7 +1725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753099" y="3902869"/>
+          <a:off x="5667374" y="2359819"/>
           <a:ext cx="2011680" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3057,10 +3057,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53339</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146209</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577214</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -3078,12 +3078,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="8219123" y="3448525"/>
-          <a:ext cx="2935128" cy="5855495"/>
+          <a:off x="7404735" y="2634138"/>
+          <a:ext cx="4478178" cy="5941220"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 75961"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3120,15 +3120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>429578</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>146209</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>429577</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577214</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3140,8 +3140,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6103382" y="5330905"/>
-          <a:ext cx="1077753" cy="233362"/>
+          <a:off x="5288994" y="4602243"/>
+          <a:ext cx="2620803" cy="147637"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -3308,6 +3308,105 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>- db:database/basic</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>282892</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5586412" y="4129087"/>
+          <a:ext cx="2011680" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="91440" tIns="0" rIns="91440" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[ tasmota_sensor ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- keys: network/mqtt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- network:network/mqtt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7204,8 +7303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/review.xlsx
+++ b/review.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v2" sheetId="2" r:id="rId1"/>
-    <sheet name="v1" sheetId="1" r:id="rId2"/>
+    <sheet name="database" sheetId="3" r:id="rId2"/>
+    <sheet name="v1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Sự kiện chuẩn của thiết bị</t>
   </si>
@@ -55,6 +56,39 @@
   </si>
   <si>
     <t>getInfor</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Huminlity</t>
+  </si>
+  <si>
+    <t>powerpersentage</t>
+  </si>
+  <si>
+    <t>Temporature</t>
+  </si>
+  <si>
+    <t>contactor</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>ON/OFF</t>
+  </si>
+  <si>
+    <t>PWM</t>
   </si>
 </sst>
 </file>
@@ -7303,7 +7337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -7367,6 +7401,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:W11"/>
   <sheetViews>

--- a/review.xlsx
+++ b/review.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v2" sheetId="2" r:id="rId1"/>
     <sheet name="database" sheetId="3" r:id="rId2"/>
-    <sheet name="v1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="v1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3451,6 +3452,713 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="47624"/>
+          <a:ext cx="5038725" cy="5248276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Global Driver serrvice </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="1885950"/>
+          <a:ext cx="4648200" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Driver service</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380997</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3428997" y="2181224"/>
+          <a:ext cx="2114553" cy="1209676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>socket drvier1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>service:	hookservice[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>type:	'socket1'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>remote:	RemoteControl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>network:	'websocket'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409573</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457573" y="3486149"/>
+          <a:ext cx="2085978" cy="1209676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>socket api1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>service:	hookservice[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>type:	'socket-api1'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>remote:	RemoteControl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>network:	'websocket'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161922</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648322" y="2181224"/>
+          <a:ext cx="2057403" cy="1209676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tasmota_mqtt1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>service:	hookservice[]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>type:	'tasmota1'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>remote:	RemoteControl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>network:	'mqtt'</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="314325"/>
+          <a:ext cx="4648200" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Network</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523873</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181473" y="733424"/>
+          <a:ext cx="1228728" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mqtt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85723</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572123" y="485774"/>
+          <a:ext cx="1228728" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>websocket</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695948" y="1152524"/>
+          <a:ext cx="1228728" cy="371476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>http</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7404,8 +8112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7474,6 +8182,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:W11"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
